--- a/frequent_itemsets.xlsx
+++ b/frequent_itemsets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,491 +447,711 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.285832568010621</v>
+        <v>0.1344604593839668</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>frozenset({'2023'})</t>
+          <t>frozenset({'2022'})</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7877430990097597</v>
+        <v>0.285832568010621</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV'})</t>
+          <t>frozenset({'2023'})</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3332270605421816</v>
+        <v>0.1676651550551746</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>frozenset({'Clean Alternative Fuel Vehicle Eligible'})</t>
+          <t>frozenset({'2024'})</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.7877430990097597</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>frozenset({'Eligibility unknown as battery range has not been researched'})</t>
+          <t>frozenset({'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5097001679744565</v>
+        <v>0.3332270605421816</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>frozenset({'King'})</t>
+          <t>frozenset({'Clean Alternative Fuel Vehicle Eligible'})</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>frozenset({'MODEL Y'})</t>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched'})</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2122569009902404</v>
+        <v>0.5097001679744565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'Plug-in Hybrid Electric Vehicle PHEV'})</t>
+          <t>frozenset({'King'})</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA'})</t>
+          <t>frozenset({'MODEL 3'})</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9979395767805055</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>frozenset({'WA'})</t>
+          <t>frozenset({'MODEL Y'})</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1021836679340094</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', '2023'})</t>
+          <t>frozenset({'Not eligible due to low battery range'})</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.2122569009902404</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched'})</t>
+          <t>frozenset({'Plug-in Hybrid Electric Vehicle PHEV'})</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2853281687929156</v>
+        <v>0.1610936897754472</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>frozenset({'2023', 'WA'})</t>
+          <t>frozenset({'Seattle'})</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2231157596204634</v>
+        <v>0.1208274050563642</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'Clean Alternative Fuel Vehicle Eligible'})</t>
+          <t>frozenset({'Snohomish'})</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5645892715238091</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'Eligibility unknown as battery range has not been researched'})</t>
+          <t>frozenset({'TESLA'})</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'King'})</t>
+          <t>frozenset({'2022', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+          <t>frozenset({'2022', 'Eligibility unknown as battery range has not been researched'})</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4347873671788381</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV'})</t>
+          <t>frozenset({'2023', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7862679692221307</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'WA'})</t>
+          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched'})</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.332494254131553</v>
+        <v>0.1520763641381673</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>frozenset({'Clean Alternative Fuel Vehicle Eligible', 'WA'})</t>
+          <t>frozenset({'2023', 'King'})</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'King'})</t>
+          <t>frozenset({'2023', 'TESLA'})</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Eligibility unknown as battery range has not been researched'})</t>
+          <t>frozenset({'2024', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'WA'})</t>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', '2024'})</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.2231157596204634</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'King'})</t>
+          <t>frozenset({'Clean Alternative Fuel Vehicle Eligible', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5097001679744565</v>
+        <v>0.5645892715238091</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>frozenset({'WA', 'King'})</t>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.4128507596918407</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'MODEL Y'})</t>
+          <t>frozenset({'King', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>frozenset({'MODEL Y', 'WA'})</t>
+          <t>frozenset({'Battery Electric Vehicle BEV', 'MODEL 3'})</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2116716075583747</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>frozenset({'WA', 'Plug-in Hybrid Electric Vehicle PHEV'})</t>
+          <t>frozenset({'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.1287312456281436</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'WA'})</t>
+          <t>frozenset({'Seattle', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2491636965800781</v>
+        <v>0.1004848894366432</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', '2023', 'Eligibility unknown as battery range has not been researched'})</t>
+          <t>frozenset({'Battery Electric Vehicle BEV', 'Snohomish'})</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.4347873671788381</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', '2023', 'WA'})</t>
+          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1641343605312371</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched', 'WA'})</t>
+          <t>frozenset({'Clean Alternative Fuel Vehicle Eligible', 'King'})</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2226874961337324</v>
+        <v>0.1101113009217182</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'Clean Alternative Fuel Vehicle Eligible', 'WA'})</t>
+          <t>frozenset({'Plug-in Hybrid Electric Vehicle PHEV', 'Clean Alternative Fuel Vehicle Eligible'})</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1196377842598893</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'Eligibility unknown as battery range has not been researched', 'King'})</t>
+          <t>frozenset({'TESLA', 'Clean Alternative Fuel Vehicle Eligible'})</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3151495829189487</v>
+        <v>0.2993323848090183</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'Eligibility unknown as battery range has not been researched'})</t>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'King'})</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5635424052229111</v>
+        <v>0.1988808047546764</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'Eligibility unknown as battery range has not been researched', 'WA'})</t>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'MODEL Y'})</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.3151495829189487</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'King'})</t>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'TESLA'})</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4128507596918407</v>
+        <v>0.1158833410262145</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'WA', 'King'})</t>
+          <t>frozenset({'King', 'MODEL Y'})</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2095350486079058</v>
+        <v>0.1610936897754472</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+          <t>frozenset({'King', 'Seattle'})</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.2384428339622462</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'MODEL Y', 'WA'})</t>
+          <t>frozenset({'TESLA', 'King'})</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4337738102602414</v>
+        <v>0.1547363562390852</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'WA'})</t>
+          <t>frozenset({'TESLA', 'MODEL 3'})</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.2095350486079058</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'WA', 'King'})</t>
+          <t>frozenset({'TESLA', 'MODEL Y'})</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1021456000685222</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Eligibility unknown as battery range has not been researched', 'WA'})</t>
+          <t>frozenset({'Not eligible due to low battery range', 'Plug-in Hybrid Electric Vehicle PHEV'})</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1130092171819311</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'WA', 'King'})</t>
+          <t>frozenset({'2022', 'Eligibility unknown as battery range has not been researched', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.2491636965800781</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'MODEL Y', 'WA'})</t>
+          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2487354330933472</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', '2023', 'Eligibility unknown as battery range has not been researched', 'WA'})</t>
+          <t>frozenset({'2023', 'King', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2993323848090183</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>frozenset({'Battery Electric Vehicle BEV', 'Eligibility unknown as battery range has not been researched', 'WA', 'King'})</t>
+          <t>frozenset({'2023', 'TESLA', 'Battery Electric Vehicle BEV'})</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.314473878306551</v>
+        <v>0.1331899443733316</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'Eligibility unknown as battery range has not been researched', 'WA'})</t>
+          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched', 'King'})</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.2384428339622462</v>
+        <v>0.1331423595414725</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'WA', 'King'})</t>
+          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched', 'TESLA'})</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.2090782342220594</v>
+        <v>0.1279794052847714</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'MODEL Y', 'WA'})</t>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', '2024', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.1135088579164506</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>frozenset({'Clean Alternative Fuel Vehicle Eligible', 'King', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.1196377842598893</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>frozenset({'TESLA', 'Clean Alternative Fuel Vehicle Eligible', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.2993323848090183</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'King', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.1988808047546764</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.3151495829189487</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'TESLA', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.1158833410262145</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>frozenset({'King', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.1287312456281436</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>frozenset({'King', 'Seattle', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.2384428339622462</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>frozenset({'TESLA', 'King', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.1547363562390852</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>frozenset({'Battery Electric Vehicle BEV', 'TESLA', 'MODEL 3'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.2095350486079058</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>frozenset({'TESLA', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.110215987551808</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'King', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.1741319337048123</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'TESLA', 'King'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.1988808047546764</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'TESLA', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.1158833410262145</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>frozenset({'TESLA', 'King', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.1331899443733316</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched', 'King', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.1331423595414725</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>frozenset({'2023', 'Eligibility unknown as battery range has not been researched', 'TESLA', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.110215987551808</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'King', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.1741319337048123</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'TESLA', 'King', 'Battery Electric Vehicle BEV'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.1988808047546764</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'TESLA', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.1158833410262145</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>frozenset({'TESLA', 'King', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.110215987551808</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>frozenset({'Eligibility unknown as battery range has not been researched', 'TESLA', 'King', 'MODEL Y'})</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.110215987551808</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>frozenset({'TESLA', 'Eligibility unknown as battery range has not been researched', 'King', 'Battery Electric Vehicle BEV', 'MODEL Y'})</t>
         </is>
       </c>
     </row>
